--- a/preprocesamiento/ipc_aux.xlsx
+++ b/preprocesamiento/ipc_aux.xlsx
@@ -2564,7 +2564,7 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>1538.063</v>
+        <v>1643.856</v>
       </c>
     </row>
     <row r="159">
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1475.1378</v>
+        <v>1584.24953333333</v>
       </c>
     </row>
     <row r="160">
@@ -2592,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>1556.9071</v>
+        <v>1669.34336666667</v>
       </c>
     </row>
     <row r="161">
@@ -2606,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>1530.4512</v>
+        <v>1648.10553333333</v>
       </c>
     </row>
     <row r="162">
@@ -2620,7 +2620,7 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>1512.803</v>
+        <v>1622.2119</v>
       </c>
     </row>
     <row r="163">
@@ -2634,7 +2634,175 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>1445.0457</v>
+        <v>1550.10826666667</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>42</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2097.07913333333</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2017.23796666667</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>41</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2164.39663333333</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>40</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2132.39436666667</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>43</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2075.529</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>44</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2022.0432</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>42</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2998.95936666667</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2889.2142</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>41</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3124.4947</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>40</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3037.2672</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>43</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2986.79173333333</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>44</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2887.8278</v>
       </c>
     </row>
   </sheetData>

--- a/preprocesamiento/ipc_aux.xlsx
+++ b/preprocesamiento/ipc_aux.xlsx
@@ -2805,6 +2805,258 @@
         <v>2887.8278</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>42</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4954.4875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4726.858</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>41</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5038.7329</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>40</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4901.65773333333</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>43</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4872.1372</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>44</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4751.51086666667</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>42</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6180.54586666667</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6039.01633333333</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>41</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6135.44063333333</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>40</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6109.10373333333</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>43</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6138.18383333333</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>44</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5956.04626666667</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>42</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7045.17</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6816.58803333333</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>41</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6952.21006666667</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>40</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6914.30156666667</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>43</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6910.0092</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>44</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6781.76246666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/preprocesamiento/ipc_aux.xlsx
+++ b/preprocesamiento/ipc_aux.xlsx
@@ -3057,6 +3057,174 @@
         <v>6781.76246666667</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>42</v>
+      </c>
+      <c r="D194" t="n">
+        <v>7618.50333333333</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>7473.0818</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>41</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7546.68136666667</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>40</v>
+      </c>
+      <c r="D197" t="n">
+        <v>7529.8136</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>43</v>
+      </c>
+      <c r="D198" t="n">
+        <v>7504.5334</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>44</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7504.49633333333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>42</v>
+      </c>
+      <c r="D200" t="n">
+        <v>8179.03373333333</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>8053.76663333333</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>41</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8114.406</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>40</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8165.4927</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>43</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8096.24423333333</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>44</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8169.6602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
